--- a/results/LeNet5/MNIST/K2-R1-mlp/results.xlsx
+++ b/results/LeNet5/MNIST/K2-R1-mlp/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCourse(5 delayed 1)\erasure code\non-linear erasure code\results\LeNet5\MNIST\K2-R1-mlp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nonlinear-Erasure-Code\results\LeNet5\MNIST\K2-R1-mlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFC651-802B-48E1-A972-A4B3FD84B28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7318E8-353D-4CEC-A33D-18079FC6D0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="840" windowWidth="12228" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +220,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,24 +510,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="16.640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.2109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -574,28 +582,28 @@
         <v>4.060000000000008E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="3">
+      <c r="E4" s="9">
         <v>0.99360000000000004</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>0.8004</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <f t="shared" ref="I4:I10" si="0">E4-H4</f>
         <v>0.19320000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -616,7 +624,7 @@
         <v>0.46079999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -637,7 +645,7 @@
         <v>0.88119999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -658,28 +666,28 @@
         <v>3.0499999999999972E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>0.98909999999999998</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0.80430000000000001</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>0.18479999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -700,7 +708,7 @@
         <v>0.43799999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
